--- a/Lab 4 Development Kit/Copy of results.xlsx
+++ b/Lab 4 Development Kit/Copy of results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>Base</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Implementation 2 – Broadcast</t>
+  </si>
+  <si>
+    <t>Implementation 3 – All Gather Cluster</t>
+  </si>
+  <si>
+    <t>Implementation 2 – BroadCast Cluster</t>
   </si>
 </sst>
 </file>
@@ -122,7 +128,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,9 +453,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -462,12 +471,12 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
@@ -552,12 +561,12 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
@@ -634,12 +643,12 @@
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
@@ -716,17 +725,103 @@
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D32" s="1">
+        <v>0.11770799999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5300</v>
+      </c>
+      <c r="F32" s="1">
+        <v>8</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1.1259999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D37" s="1">
+        <v>0.117811</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5300</v>
+      </c>
+      <c r="F37" s="1">
+        <v>8</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.1259999999999999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="D35:G35"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D30:G30"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
   <headerFooter>
